--- a/配置文档/地图相关/地块.xlsx
+++ b/配置文档/地图相关/地块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18870" windowHeight="8910" firstSheet="1"/>
+    <workbookView windowWidth="20145" windowHeight="7860" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MapImageSet_地图图像集" sheetId="3" r:id="rId1"/>
@@ -1008,12 +1008,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
